--- a/folder_in/Salut mental i addiccions_1_TERMCAT.xlsx
+++ b/folder_in/Salut mental i addiccions_1_TERMCAT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A612A73-36BF-4EBF-9869-C7C6EE3B5B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529DC842-9510-424F-9292-ABFEE1362BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1840" windowWidth="21533" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="867">
   <si>
     <t>Forma principal</t>
   </si>
@@ -2913,12 +2913,15 @@
 NOTA: 3. La xarxa de suport contribueix a la promoció de la salut mental i a la prevenció dels trastorns mentals i constitueix un element bàsic tant per a les persones amb un trastorn mental com per a les persones que, com a cuidadores, en tenen cura.
 </t>
   </si>
+  <si>
+    <t>institucionalització2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3462,12 +3465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3479,6 +3476,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3796,19 +3799,19 @@
   <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A302" sqref="A302"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="20.7" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -3822,7 +3825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29.1">
+    <row r="2" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.5">
+    <row r="3" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3844,7 +3847,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="57.95">
+    <row r="4" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -3856,7 +3859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="44.1" thickBot="1">
+    <row r="5" spans="1:4" ht="46.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
@@ -3866,29 +3869,29 @@
       </c>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="66" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="64" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1">
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="67"/>
       <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="61"/>
-    </row>
-    <row r="8" spans="1:4" ht="87">
+      <c r="C7" s="61"/>
+      <c r="D7" s="65"/>
+    </row>
+    <row r="8" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
@@ -3900,7 +3903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="174">
+    <row r="9" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.5">
+    <row r="10" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57.95">
+    <row r="11" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -3934,7 +3937,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="159.6">
+    <row r="12" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="72.599999999999994">
+    <row r="13" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="188.45">
+    <row r="14" spans="1:4" ht="184" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="290.45" thickBot="1">
+    <row r="15" spans="1:4" ht="292" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>41</v>
       </c>
@@ -3988,21 +3991,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="66" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="64" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="7" t="s">
         <v>49</v>
@@ -4010,15 +4013,15 @@
       <c r="C17" s="69"/>
       <c r="D17" s="70"/>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1">
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="67"/>
       <c r="B18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="61"/>
-    </row>
-    <row r="19" spans="1:4" ht="174">
+      <c r="C18" s="61"/>
+      <c r="D18" s="65"/>
+    </row>
+    <row r="19" spans="1:4" ht="184" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>51</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29.1">
+    <row r="20" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -4042,7 +4045,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="203.1">
+    <row r="21" spans="1:4" ht="199.35" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="87">
+    <row r="22" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>60</v>
       </c>
@@ -4064,7 +4067,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="57.95">
+    <row r="23" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -4074,7 +4077,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="87">
+    <row r="24" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="87">
+    <row r="25" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -4098,7 +4101,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="87">
+    <row r="26" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -4110,7 +4113,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="57.95">
+    <row r="27" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
@@ -4120,7 +4123,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="101.45">
+    <row r="28" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>75</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="87">
+    <row r="29" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="203.1">
+    <row r="30" spans="1:4" ht="199.35" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>82</v>
       </c>
@@ -4158,7 +4161,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="87">
+    <row r="31" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="57.95">
+    <row r="32" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>88</v>
       </c>
@@ -4180,7 +4183,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="101.45">
+    <row r="33" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>90</v>
       </c>
@@ -4192,7 +4195,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="159.6">
+    <row r="34" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>93</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="101.45">
+    <row r="35" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>97</v>
       </c>
@@ -4216,7 +4219,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="101.45">
+    <row r="36" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>99</v>
       </c>
@@ -4230,7 +4233,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="130.5">
+    <row r="37" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>103</v>
       </c>
@@ -4242,7 +4245,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.5">
+    <row r="38" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>106</v>
       </c>
@@ -4252,7 +4255,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="101.45">
+    <row r="39" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>108</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="43.5">
+    <row r="40" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>111</v>
       </c>
@@ -4274,7 +4277,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="43.5">
+    <row r="41" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>113</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="144.94999999999999">
+    <row r="42" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>116</v>
       </c>
@@ -4300,7 +4303,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="159.6">
+    <row r="43" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>120</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="72.599999999999994">
+    <row r="44" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>123</v>
       </c>
@@ -4322,7 +4325,7 @@
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="43.5">
+    <row r="45" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>125</v>
       </c>
@@ -4332,7 +4335,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="72.599999999999994">
+    <row r="46" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>127</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="29.1">
+    <row r="47" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>130</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="57.95">
+    <row r="48" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>133</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29.1">
+    <row r="49" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>136</v>
       </c>
@@ -4378,7 +4381,7 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="362.45">
+    <row r="50" spans="1:4" ht="352.7" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>138</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="130.5">
+    <row r="51" spans="1:4" ht="122.7" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>141</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="72.599999999999994">
+    <row r="52" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>144</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="276" thickBot="1">
+    <row r="53" spans="1:4" ht="276.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
         <v>147</v>
       </c>
@@ -4428,21 +4431,21 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="71" t="s">
         <v>150</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="60" t="s">
         <v>152</v>
       </c>
       <c r="D54" s="74" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="72"/>
       <c r="B55" s="7" t="s">
         <v>154</v>
@@ -4450,7 +4453,7 @@
       <c r="C55" s="69"/>
       <c r="D55" s="75"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="72"/>
       <c r="B56" s="7" t="s">
         <v>155</v>
@@ -4458,15 +4461,15 @@
       <c r="C56" s="69"/>
       <c r="D56" s="75"/>
     </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1">
+    <row r="57" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="73"/>
       <c r="B57" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="63"/>
+      <c r="C57" s="61"/>
       <c r="D57" s="76"/>
     </row>
-    <row r="58" spans="1:4" ht="72.95" thickBot="1">
+    <row r="58" spans="1:4" ht="77.349999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="29" t="s">
         <v>157</v>
       </c>
@@ -4478,43 +4481,43 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="29.1">
-      <c r="A59" s="64" t="s">
+    <row r="59" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
+      <c r="A59" s="62" t="s">
         <v>160</v>
       </c>
       <c r="B59" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="60" t="s">
+      <c r="D59" s="64" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1">
-      <c r="A60" s="65"/>
+    <row r="60" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="63"/>
       <c r="B60" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="63"/>
-      <c r="D60" s="61"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="C60" s="61"/>
+      <c r="D60" s="65"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="66" t="s">
         <v>165</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="62" t="s">
+      <c r="C61" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="64" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="68"/>
       <c r="B62" s="7" t="s">
         <v>169</v>
@@ -4522,15 +4525,15 @@
       <c r="C62" s="69"/>
       <c r="D62" s="70"/>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1">
+    <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="67"/>
       <c r="B63" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C63" s="63"/>
-      <c r="D63" s="61"/>
-    </row>
-    <row r="64" spans="1:4" ht="102" thickBot="1">
+      <c r="C63" s="61"/>
+      <c r="D63" s="65"/>
+    </row>
+    <row r="64" spans="1:4" ht="108" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="34" t="s">
         <v>171</v>
       </c>
@@ -4544,29 +4547,29 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="66" t="s">
         <v>175</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="D65" s="60" t="s">
+      <c r="D65" s="64" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1">
+    <row r="66" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="67"/>
       <c r="B66" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C66" s="63"/>
-      <c r="D66" s="61"/>
-    </row>
-    <row r="67" spans="1:4" ht="217.5">
+      <c r="C66" s="61"/>
+      <c r="D66" s="65"/>
+    </row>
+    <row r="67" spans="1:4" ht="214.7" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>180</v>
       </c>
@@ -4578,7 +4581,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>183</v>
       </c>
@@ -4590,7 +4593,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" ht="29.1">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>186</v>
       </c>
@@ -4602,7 +4605,7 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" ht="101.45">
+    <row r="70" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>189</v>
       </c>
@@ -4616,7 +4619,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="203.1">
+    <row r="71" spans="1:4" ht="214.7" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>193</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="57.95">
+    <row r="72" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>196</v>
       </c>
@@ -4642,7 +4645,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="174">
+    <row r="73" spans="1:4" ht="168.7" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>200</v>
       </c>
@@ -4654,7 +4657,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="101.45">
+    <row r="74" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>203</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="188.45">
+    <row r="75" spans="1:4" ht="168.7" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>206</v>
       </c>
@@ -4678,7 +4681,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="87">
+    <row r="76" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>209</v>
       </c>
@@ -4690,7 +4693,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="144.94999999999999">
+    <row r="77" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>212</v>
       </c>
@@ -4702,7 +4705,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="72.599999999999994">
+    <row r="78" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>215</v>
       </c>
@@ -4714,7 +4717,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="246.6">
+    <row r="79" spans="1:4" ht="245.35" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>218</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="72.599999999999994">
+    <row r="80" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>222</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="57.95">
+    <row r="81" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>225</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="72.95" thickBot="1">
+    <row r="82" spans="1:4" ht="77.349999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="36" t="s">
         <v>228</v>
       </c>
@@ -4766,19 +4769,19 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="66" t="s">
         <v>232</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="60" t="s">
         <v>234</v>
       </c>
       <c r="D83" s="37"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="68"/>
       <c r="B84" s="2" t="s">
         <v>235</v>
@@ -4786,27 +4789,27 @@
       <c r="C84" s="69"/>
       <c r="D84" s="38"/>
     </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1">
+    <row r="85" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="67"/>
       <c r="B85" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C85" s="63"/>
+      <c r="C85" s="61"/>
       <c r="D85" s="40"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="66" t="s">
         <v>237</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C86" s="62" t="s">
+      <c r="C86" s="60" t="s">
         <v>239</v>
       </c>
       <c r="D86" s="37"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="68"/>
       <c r="B87" s="7" t="s">
         <v>240</v>
@@ -4814,27 +4817,27 @@
       <c r="C87" s="69"/>
       <c r="D87" s="38"/>
     </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1">
+    <row r="88" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="67"/>
       <c r="B88" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="C88" s="63"/>
+      <c r="C88" s="61"/>
       <c r="D88" s="40"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="66" t="s">
         <v>242</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C89" s="62" t="s">
+      <c r="C89" s="60" t="s">
         <v>244</v>
       </c>
       <c r="D89" s="37"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="68"/>
       <c r="B90" s="7" t="s">
         <v>245</v>
@@ -4842,15 +4845,15 @@
       <c r="C90" s="69"/>
       <c r="D90" s="38"/>
     </row>
-    <row r="91" spans="1:4" ht="15" thickBot="1">
+    <row r="91" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="67"/>
       <c r="B91" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C91" s="63"/>
+      <c r="C91" s="61"/>
       <c r="D91" s="40"/>
     </row>
-    <row r="92" spans="1:4" ht="44.1" thickBot="1">
+    <row r="92" spans="1:4" ht="46.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="41" t="s">
         <v>247</v>
       </c>
@@ -4862,7 +4865,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="72.599999999999994">
+    <row r="93" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>250</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="87">
+    <row r="94" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>254</v>
       </c>
@@ -4890,7 +4893,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="72.599999999999994">
+    <row r="95" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>258</v>
       </c>
@@ -4902,7 +4905,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="261">
+    <row r="96" spans="1:4" ht="260.7" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>261</v>
       </c>
@@ -4914,7 +4917,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="116.1">
+    <row r="97" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>264</v>
       </c>
@@ -4926,7 +4929,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="43.5">
+    <row r="98" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>267</v>
       </c>
@@ -4938,7 +4941,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="116.1">
+    <row r="99" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>270</v>
       </c>
@@ -4952,7 +4955,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="87">
+    <row r="100" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>274</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="87">
+    <row r="101" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>277</v>
       </c>
@@ -4976,7 +4979,7 @@
       </c>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" ht="188.45">
+    <row r="102" spans="1:4" ht="184" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>280</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="130.5">
+    <row r="103" spans="1:4" ht="122.7" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>283</v>
       </c>
@@ -5002,7 +5005,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="159.6">
+    <row r="104" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>287</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="43.5">
+    <row r="105" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>290</v>
       </c>
@@ -5026,7 +5029,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="87">
+    <row r="106" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>293</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="72.599999999999994">
+    <row r="107" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>296</v>
       </c>
@@ -5050,7 +5053,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="43.5">
+    <row r="108" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>299</v>
       </c>
@@ -5060,7 +5063,7 @@
       </c>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" ht="275.45">
+    <row r="109" spans="1:4" ht="260.7" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>301</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="217.5">
+    <row r="110" spans="1:4" ht="199.35" x14ac:dyDescent="0.3">
       <c r="A110" s="44" t="s">
         <v>304</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="43.5">
+    <row r="111" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>307</v>
       </c>
@@ -5093,7 +5096,7 @@
       </c>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" ht="318.95">
+    <row r="112" spans="1:4" ht="306.7" x14ac:dyDescent="0.3">
       <c r="A112" s="44" t="s">
         <v>309</v>
       </c>
@@ -5105,7 +5108,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="72.599999999999994">
+    <row r="113" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>312</v>
       </c>
@@ -5115,7 +5118,7 @@
       </c>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" ht="87">
+    <row r="114" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>314</v>
       </c>
@@ -5125,7 +5128,7 @@
       </c>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" ht="144.94999999999999">
+    <row r="115" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>316</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="87">
+    <row r="116" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>319</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="101.45">
+    <row r="117" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>322</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="101.45">
+    <row r="118" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>326</v>
       </c>
@@ -5173,7 +5176,7 @@
       </c>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" ht="174.6" thickBot="1">
+    <row r="119" spans="1:4" ht="169.35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="20" t="s">
         <v>328</v>
       </c>
@@ -5183,29 +5186,29 @@
       </c>
       <c r="D119" s="14"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="66" t="s">
         <v>330</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="C120" s="62" t="s">
+      <c r="C120" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="D120" s="60" t="s">
+      <c r="D120" s="64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" thickBot="1">
+    <row r="121" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="67"/>
       <c r="B121" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="C121" s="63"/>
-      <c r="D121" s="61"/>
-    </row>
-    <row r="122" spans="1:4" ht="203.1">
+      <c r="C121" s="61"/>
+      <c r="D121" s="65"/>
+    </row>
+    <row r="122" spans="1:4" ht="214.7" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>335</v>
       </c>
@@ -5217,7 +5220,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="159.6">
+    <row r="123" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>338</v>
       </c>
@@ -5229,7 +5232,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="57.95">
+    <row r="124" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>341</v>
       </c>
@@ -5243,7 +5246,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="72.599999999999994">
+    <row r="125" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>345</v>
       </c>
@@ -5257,7 +5260,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="174">
+    <row r="126" spans="1:4" ht="168.7" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>349</v>
       </c>
@@ -5271,7 +5274,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="174">
+    <row r="127" spans="1:4" ht="168.7" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>353</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="57.95">
+    <row r="128" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>356</v>
       </c>
@@ -5295,7 +5298,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="43.5">
+    <row r="129" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>359</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="159.6">
+    <row r="130" spans="1:4" ht="168.7" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>362</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="29.1">
+    <row r="131" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>365</v>
       </c>
@@ -5331,7 +5334,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="43.5">
+    <row r="132" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>368</v>
       </c>
@@ -5343,7 +5346,7 @@
       </c>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" ht="130.5">
+    <row r="133" spans="1:4" ht="122.7" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>371</v>
       </c>
@@ -5355,7 +5358,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="144.94999999999999">
+    <row r="134" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>374</v>
       </c>
@@ -5367,7 +5370,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="116.1">
+    <row r="135" spans="1:4" ht="122.7" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>377</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="43.5">
+    <row r="136" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>381</v>
       </c>
@@ -5395,7 +5398,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="57.95">
+    <row r="137" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>385</v>
       </c>
@@ -5407,7 +5410,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="217.5">
+    <row r="138" spans="1:4" ht="199.35" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>388</v>
       </c>
@@ -5421,7 +5424,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="159.6">
+    <row r="139" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>392</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="174">
+    <row r="140" spans="1:4" ht="168.7" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>396</v>
       </c>
@@ -5447,7 +5450,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="58.5" thickBot="1">
+    <row r="141" spans="1:4" ht="62" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="20" t="s">
         <v>399</v>
       </c>
@@ -5457,29 +5460,29 @@
       </c>
       <c r="D141" s="14"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="66" t="s">
         <v>401</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="C142" s="62" t="s">
+      <c r="C142" s="60" t="s">
         <v>403</v>
       </c>
-      <c r="D142" s="60" t="s">
+      <c r="D142" s="64" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" thickBot="1">
+    <row r="143" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="67"/>
       <c r="B143" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="C143" s="63"/>
-      <c r="D143" s="61"/>
-    </row>
-    <row r="144" spans="1:4" ht="101.45">
+      <c r="C143" s="61"/>
+      <c r="D143" s="65"/>
+    </row>
+    <row r="144" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
         <v>406</v>
       </c>
@@ -5491,7 +5494,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="87">
+    <row r="145" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>409</v>
       </c>
@@ -5501,7 +5504,7 @@
       </c>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" ht="29.1">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>411</v>
       </c>
@@ -5511,7 +5514,7 @@
       </c>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" ht="101.45">
+    <row r="147" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A147" s="44" t="s">
         <v>413</v>
       </c>
@@ -5523,7 +5526,7 @@
       </c>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" ht="43.5">
+    <row r="148" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>416</v>
       </c>
@@ -5533,7 +5536,7 @@
       </c>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" ht="72.599999999999994">
+    <row r="149" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>418</v>
       </c>
@@ -5545,7 +5548,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="130.5">
+    <row r="150" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>421</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="116.1">
+    <row r="151" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>425</v>
       </c>
@@ -5571,7 +5574,7 @@
       </c>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4" ht="29.45" thickBot="1">
+    <row r="152" spans="1:4" ht="31.35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="20" t="s">
         <v>428</v>
       </c>
@@ -5583,21 +5586,21 @@
       </c>
       <c r="D152" s="14"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="66" t="s">
         <v>431</v>
       </c>
       <c r="B153" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="C153" s="62" t="s">
+      <c r="C153" s="60" t="s">
         <v>433</v>
       </c>
-      <c r="D153" s="60" t="s">
+      <c r="D153" s="64" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="68"/>
       <c r="B154" s="7" t="s">
         <v>435</v>
@@ -5605,29 +5608,29 @@
       <c r="C154" s="69"/>
       <c r="D154" s="70"/>
     </row>
-    <row r="155" spans="1:4" ht="15" thickBot="1">
+    <row r="155" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="67"/>
       <c r="B155" s="46" t="s">
         <v>436</v>
       </c>
-      <c r="C155" s="63"/>
-      <c r="D155" s="61"/>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="C155" s="61"/>
+      <c r="D155" s="65"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="66" t="s">
         <v>437</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="C156" s="62" t="s">
+      <c r="C156" s="60" t="s">
         <v>439</v>
       </c>
-      <c r="D156" s="60" t="s">
+      <c r="D156" s="64" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="68"/>
       <c r="B157" s="2" t="s">
         <v>429</v>
@@ -5635,15 +5638,15 @@
       <c r="C157" s="69"/>
       <c r="D157" s="70"/>
     </row>
-    <row r="158" spans="1:4" ht="15" thickBot="1">
+    <row r="158" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="67"/>
       <c r="B158" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="C158" s="63"/>
-      <c r="D158" s="61"/>
-    </row>
-    <row r="159" spans="1:4" ht="72.599999999999994">
+      <c r="C158" s="61"/>
+      <c r="D158" s="65"/>
+    </row>
+    <row r="159" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
         <v>442</v>
       </c>
@@ -5657,7 +5660,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="189" thickBot="1">
+    <row r="160" spans="1:4" ht="184.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="20" t="s">
         <v>446</v>
       </c>
@@ -5669,29 +5672,29 @@
         <v>448</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="66" t="s">
         <v>449</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="C161" s="62" t="s">
+      <c r="C161" s="60" t="s">
         <v>451</v>
       </c>
-      <c r="D161" s="60" t="s">
+      <c r="D161" s="64" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" thickBot="1">
+    <row r="162" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="67"/>
       <c r="B162" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C162" s="63"/>
-      <c r="D162" s="61"/>
-    </row>
-    <row r="163" spans="1:4" ht="57.95">
+      <c r="C162" s="61"/>
+      <c r="D162" s="65"/>
+    </row>
+    <row r="163" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
         <v>454</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="130.5">
+    <row r="164" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A164" s="44" t="s">
         <v>457</v>
       </c>
@@ -5717,7 +5720,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="43.5">
+    <row r="165" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>461</v>
       </c>
@@ -5727,7 +5730,7 @@
       </c>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" ht="159.6">
+    <row r="166" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>463</v>
       </c>
@@ -5739,7 +5742,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="116.1">
+    <row r="167" spans="1:4" ht="122.7" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>466</v>
       </c>
@@ -5751,7 +5754,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="290.10000000000002">
+    <row r="168" spans="1:4" ht="276" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>469</v>
       </c>
@@ -5763,7 +5766,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="87">
+    <row r="169" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A169" s="44" t="s">
         <v>472</v>
       </c>
@@ -5773,7 +5776,7 @@
       </c>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" ht="174">
+    <row r="170" spans="1:4" ht="168.7" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>474</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="246.6">
+    <row r="171" spans="1:4" ht="230" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>477</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="101.45">
+    <row r="172" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>480</v>
       </c>
@@ -5809,9 +5812,9 @@
         <v>482</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="43.5">
+    <row r="173" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>480</v>
+        <v>866</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="8" t="s">
@@ -5819,7 +5822,7 @@
       </c>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" ht="101.45">
+    <row r="174" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>484</v>
       </c>
@@ -5831,7 +5834,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="87">
+    <row r="175" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>487</v>
       </c>
@@ -5845,7 +5848,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="43.5">
+    <row r="176" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>491</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="72.599999999999994">
+    <row r="177" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>494</v>
       </c>
@@ -5869,7 +5872,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="144.94999999999999">
+    <row r="178" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>497</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="87">
+    <row r="179" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>500</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="144.94999999999999">
+    <row r="180" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>503</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="246.6">
+    <row r="181" spans="1:4" ht="214.7" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>506</v>
       </c>
@@ -5917,7 +5920,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="174">
+    <row r="182" spans="1:4" ht="168.7" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>509</v>
       </c>
@@ -5929,7 +5932,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="87">
+    <row r="183" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>512</v>
       </c>
@@ -5943,7 +5946,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="130.5">
+    <row r="184" spans="1:4" ht="122.7" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>516</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="188.45">
+    <row r="185" spans="1:4" ht="184" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>519</v>
       </c>
@@ -5967,7 +5970,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="102" thickBot="1">
+    <row r="186" spans="1:4" ht="108" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="20" t="s">
         <v>522</v>
       </c>
@@ -5979,29 +5982,29 @@
         <v>524</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="66" t="s">
         <v>525</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="C187" s="62" t="s">
+      <c r="C187" s="60" t="s">
         <v>527</v>
       </c>
-      <c r="D187" s="60" t="s">
+      <c r="D187" s="64" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" thickBot="1">
+    <row r="188" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="67"/>
       <c r="B188" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="C188" s="63"/>
-      <c r="D188" s="61"/>
-    </row>
-    <row r="189" spans="1:4" ht="101.45">
+      <c r="C188" s="61"/>
+      <c r="D188" s="65"/>
+    </row>
+    <row r="189" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
         <v>530</v>
       </c>
@@ -6013,7 +6016,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="57.95">
+    <row r="190" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>533</v>
       </c>
@@ -6025,7 +6028,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="29.1">
+    <row r="191" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>536</v>
       </c>
@@ -6035,7 +6038,7 @@
       </c>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" ht="217.5">
+    <row r="192" spans="1:4" ht="214.7" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>538</v>
       </c>
@@ -6047,7 +6050,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="362.45">
+    <row r="193" spans="1:4" ht="368" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>541</v>
       </c>
@@ -6061,7 +6064,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="72.95" thickBot="1">
+    <row r="194" spans="1:4" ht="77.349999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="20" t="s">
         <v>545</v>
       </c>
@@ -6071,29 +6074,29 @@
       </c>
       <c r="D194" s="14"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="66" t="s">
         <v>547</v>
       </c>
       <c r="B195" s="45" t="s">
         <v>548</v>
       </c>
-      <c r="C195" s="62" t="s">
+      <c r="C195" s="60" t="s">
         <v>549</v>
       </c>
-      <c r="D195" s="60" t="s">
+      <c r="D195" s="64" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" thickBot="1">
+    <row r="196" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="67"/>
       <c r="B196" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="C196" s="63"/>
-      <c r="D196" s="61"/>
-    </row>
-    <row r="197" spans="1:4" ht="72.599999999999994">
+      <c r="C196" s="61"/>
+      <c r="D196" s="65"/>
+    </row>
+    <row r="197" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
         <v>552</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="29.1">
+    <row r="198" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>556</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="144.94999999999999">
+    <row r="199" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>560</v>
       </c>
@@ -6135,7 +6138,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="29.1">
+    <row r="200" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>564</v>
       </c>
@@ -6145,7 +6148,7 @@
       </c>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" ht="29.1">
+    <row r="201" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>566</v>
       </c>
@@ -6157,7 +6160,7 @@
       </c>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" ht="275.45">
+    <row r="202" spans="1:4" ht="276" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>569</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="72.599999999999994">
+    <row r="203" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>572</v>
       </c>
@@ -6181,7 +6184,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="87">
+    <row r="204" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>575</v>
       </c>
@@ -6193,7 +6196,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="29.1">
+    <row r="205" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>578</v>
       </c>
@@ -6205,7 +6208,7 @@
       </c>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" ht="145.5" thickBot="1">
+    <row r="206" spans="1:4" ht="138.69999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="20" t="s">
         <v>581</v>
       </c>
@@ -6217,51 +6220,51 @@
         <v>583</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="66" t="s">
         <v>584</v>
       </c>
       <c r="B207" s="18" t="s">
         <v>585</v>
       </c>
-      <c r="C207" s="62" t="s">
+      <c r="C207" s="60" t="s">
         <v>586</v>
       </c>
-      <c r="D207" s="60" t="s">
+      <c r="D207" s="64" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" thickBot="1">
+    <row r="208" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="67"/>
       <c r="B208" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="C208" s="63"/>
-      <c r="D208" s="61"/>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="C208" s="61"/>
+      <c r="D208" s="65"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="66" t="s">
         <v>589</v>
       </c>
       <c r="B209" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="C209" s="62" t="s">
+      <c r="C209" s="60" t="s">
         <v>591</v>
       </c>
-      <c r="D209" s="60" t="s">
+      <c r="D209" s="64" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" thickBot="1">
+    <row r="210" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="67"/>
       <c r="B210" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="C210" s="63"/>
-      <c r="D210" s="61"/>
-    </row>
-    <row r="211" spans="1:4" ht="116.1">
+      <c r="C210" s="61"/>
+      <c r="D210" s="65"/>
+    </row>
+    <row r="211" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
         <v>594</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="203.1">
+    <row r="212" spans="1:4" ht="184" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>598</v>
       </c>
@@ -6289,7 +6292,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="333.6">
+    <row r="213" spans="1:4" ht="322" x14ac:dyDescent="0.3">
       <c r="A213" s="58" t="s">
         <v>602</v>
       </c>
@@ -6303,7 +6306,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="101.45">
+    <row r="214" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>606</v>
       </c>
@@ -6317,7 +6320,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="131.1" thickBot="1">
+    <row r="215" spans="1:4" ht="123.35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="20" t="s">
         <v>610</v>
       </c>
@@ -6329,29 +6332,29 @@
         <v>612</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="66" t="s">
         <v>613</v>
       </c>
       <c r="B216" s="45" t="s">
         <v>614</v>
       </c>
-      <c r="C216" s="62" t="s">
+      <c r="C216" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="D216" s="60" t="s">
+      <c r="D216" s="64" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" thickBot="1">
+    <row r="217" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="67"/>
       <c r="B217" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="C217" s="63"/>
-      <c r="D217" s="61"/>
-    </row>
-    <row r="218" spans="1:4" ht="203.1">
+      <c r="C217" s="61"/>
+      <c r="D217" s="65"/>
+    </row>
+    <row r="218" spans="1:4" ht="199.35" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
         <v>618</v>
       </c>
@@ -6365,7 +6368,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="57.95">
+    <row r="219" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>622</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="87">
+    <row r="220" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>625</v>
       </c>
@@ -6387,7 +6390,7 @@
       </c>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:4" ht="72.599999999999994">
+    <row r="221" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>627</v>
       </c>
@@ -6397,7 +6400,7 @@
       </c>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" ht="101.45">
+    <row r="222" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>629</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="261.60000000000002" thickBot="1">
+    <row r="223" spans="1:4" ht="261.35000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="49" t="s">
         <v>632</v>
       </c>
@@ -6423,29 +6426,29 @@
         <v>635</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A224" s="64" t="s">
+    <row r="224" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="62" t="s">
         <v>636</v>
       </c>
       <c r="B224" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="C224" s="62" t="s">
+      <c r="C224" s="60" t="s">
         <v>638</v>
       </c>
-      <c r="D224" s="60" t="s">
+      <c r="D224" s="64" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" thickBot="1">
-      <c r="A225" s="65"/>
+    <row r="225" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="63"/>
       <c r="B225" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="C225" s="63"/>
-      <c r="D225" s="61"/>
-    </row>
-    <row r="226" spans="1:4" ht="87">
+      <c r="C225" s="61"/>
+      <c r="D225" s="65"/>
+    </row>
+    <row r="226" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A226" s="50" t="s">
         <v>641</v>
       </c>
@@ -6459,7 +6462,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="57.95">
+    <row r="227" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>645</v>
       </c>
@@ -6471,7 +6474,7 @@
       </c>
       <c r="D227" s="3"/>
     </row>
-    <row r="228" spans="1:4" ht="188.45">
+    <row r="228" spans="1:4" ht="184" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>648</v>
       </c>
@@ -6483,7 +6486,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="87">
+    <row r="229" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>651</v>
       </c>
@@ -6495,7 +6498,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="57.95">
+    <row r="230" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>654</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="159.6">
+    <row r="231" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>657</v>
       </c>
@@ -6519,7 +6522,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="72.599999999999994">
+    <row r="232" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>660</v>
       </c>
@@ -6529,7 +6532,7 @@
       </c>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4" ht="290.10000000000002">
+    <row r="233" spans="1:4" ht="276" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>662</v>
       </c>
@@ -6541,7 +6544,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="144.94999999999999">
+    <row r="234" spans="1:4" ht="153.35" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>665</v>
       </c>
@@ -6553,7 +6556,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="72.599999999999994">
+    <row r="235" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>668</v>
       </c>
@@ -6563,7 +6566,7 @@
       </c>
       <c r="D235" s="3"/>
     </row>
-    <row r="236" spans="1:4" ht="57.95">
+    <row r="236" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>670</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="72.599999999999994">
+    <row r="237" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>673</v>
       </c>
@@ -6589,7 +6592,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="116.1">
+    <row r="238" spans="1:4" ht="122.7" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>677</v>
       </c>
@@ -6601,7 +6604,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="246.6">
+    <row r="239" spans="1:4" ht="245.35" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>680</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="130.5">
+    <row r="240" spans="1:4" ht="122.7" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>683</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="203.1">
+    <row r="241" spans="1:4" ht="199.35" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>686</v>
       </c>
@@ -6639,7 +6642,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="87">
+    <row r="242" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>690</v>
       </c>
@@ -6651,7 +6654,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="43.5">
+    <row r="243" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>693</v>
       </c>
@@ -6661,7 +6664,7 @@
       </c>
       <c r="D243" s="3"/>
     </row>
-    <row r="244" spans="1:4" ht="29.1">
+    <row r="244" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>695</v>
       </c>
@@ -6671,7 +6674,7 @@
       </c>
       <c r="D244" s="3"/>
     </row>
-    <row r="245" spans="1:4" ht="101.45">
+    <row r="245" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>697</v>
       </c>
@@ -6685,7 +6688,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="57.95">
+    <row r="246" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>701</v>
       </c>
@@ -6697,7 +6700,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="43.5">
+    <row r="247" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>704</v>
       </c>
@@ -6707,7 +6710,7 @@
       </c>
       <c r="D247" s="3"/>
     </row>
-    <row r="248" spans="1:4" ht="87">
+    <row r="248" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>706</v>
       </c>
@@ -6721,7 +6724,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="87">
+    <row r="249" spans="1:4" ht="92" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>710</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="231.95">
+    <row r="250" spans="1:4" ht="245.35" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>713</v>
       </c>
@@ -6745,7 +6748,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="275.45">
+    <row r="251" spans="1:4" ht="291.35000000000002" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>716</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="144.94999999999999">
+    <row r="252" spans="1:4" ht="122.7" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>719</v>
       </c>
@@ -6769,7 +6772,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="116.1">
+    <row r="253" spans="1:4" ht="122.7" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>722</v>
       </c>
@@ -6781,7 +6784,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="130.5">
+    <row r="254" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>725</v>
       </c>
@@ -6795,7 +6798,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="87">
+    <row r="255" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
         <v>729</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="72.599999999999994">
+    <row r="256" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>733</v>
       </c>
@@ -6821,7 +6824,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="275.45">
+    <row r="257" spans="1:4" ht="276" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>736</v>
       </c>
@@ -6833,7 +6836,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="131.1" thickBot="1">
+    <row r="258" spans="1:4" ht="138.69999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="20" t="s">
         <v>739</v>
       </c>
@@ -6845,29 +6848,29 @@
         <v>741</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="43.5" customHeight="1">
-      <c r="A259" s="64" t="s">
+    <row r="259" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="62" t="s">
         <v>742</v>
       </c>
       <c r="B259" s="52" t="s">
         <v>743</v>
       </c>
-      <c r="C259" s="62" t="s">
+      <c r="C259" s="60" t="s">
         <v>744</v>
       </c>
-      <c r="D259" s="60" t="s">
+      <c r="D259" s="64" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" thickBot="1">
-      <c r="A260" s="65"/>
+    <row r="260" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="63"/>
       <c r="B260" s="53" t="s">
         <v>746</v>
       </c>
-      <c r="C260" s="63"/>
-      <c r="D260" s="61"/>
-    </row>
-    <row r="261" spans="1:4" ht="43.5">
+      <c r="C260" s="61"/>
+      <c r="D260" s="65"/>
+    </row>
+    <row r="261" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A261" s="15" t="s">
         <v>747</v>
       </c>
@@ -6879,7 +6882,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="72.95" thickBot="1">
+    <row r="262" spans="1:4" ht="77.349999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="36" t="s">
         <v>750</v>
       </c>
@@ -6889,43 +6892,43 @@
       </c>
       <c r="D262" s="14"/>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="66" t="s">
         <v>752</v>
       </c>
       <c r="B263" s="18" t="s">
         <v>753</v>
       </c>
-      <c r="C263" s="62" t="s">
+      <c r="C263" s="60" t="s">
         <v>754</v>
       </c>
-      <c r="D263" s="60" t="s">
+      <c r="D263" s="64" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" thickBot="1">
+    <row r="264" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="67"/>
       <c r="B264" s="19" t="s">
         <v>756</v>
       </c>
-      <c r="C264" s="63"/>
-      <c r="D264" s="61"/>
-    </row>
-    <row r="265" spans="1:4">
+      <c r="C264" s="61"/>
+      <c r="D264" s="65"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="66" t="s">
         <v>757</v>
       </c>
       <c r="B265" s="18" t="s">
         <v>758</v>
       </c>
-      <c r="C265" s="62" t="s">
+      <c r="C265" s="60" t="s">
         <v>759</v>
       </c>
-      <c r="D265" s="60" t="s">
+      <c r="D265" s="64" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="68"/>
       <c r="B266" s="7" t="s">
         <v>761</v>
@@ -6933,15 +6936,15 @@
       <c r="C266" s="69"/>
       <c r="D266" s="70"/>
     </row>
-    <row r="267" spans="1:4" ht="15" thickBot="1">
+    <row r="267" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="67"/>
       <c r="B267" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="C267" s="63"/>
-      <c r="D267" s="61"/>
-    </row>
-    <row r="268" spans="1:4" ht="377.1">
+      <c r="C267" s="61"/>
+      <c r="D267" s="65"/>
+    </row>
+    <row r="268" spans="1:4" ht="383.35" x14ac:dyDescent="0.3">
       <c r="A268" s="15" t="s">
         <v>763</v>
       </c>
@@ -6955,7 +6958,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="116.1">
+    <row r="269" spans="1:4" ht="122.7" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>767</v>
       </c>
@@ -6967,7 +6970,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="188.45">
+    <row r="270" spans="1:4" ht="184" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>770</v>
       </c>
@@ -6981,7 +6984,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="188.45">
+    <row r="271" spans="1:4" ht="199.35" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>774</v>
       </c>
@@ -6993,7 +6996,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="203.1">
+    <row r="272" spans="1:4" ht="168.7" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>777</v>
       </c>
@@ -7005,7 +7008,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="57.95">
+    <row r="273" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>780</v>
       </c>
@@ -7017,7 +7020,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="87">
+    <row r="274" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>783</v>
       </c>
@@ -7027,7 +7030,7 @@
       </c>
       <c r="D274" s="3"/>
     </row>
-    <row r="275" spans="1:4" ht="116.1">
+    <row r="275" spans="1:4" ht="107.35" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>785</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="231.95">
+    <row r="276" spans="1:4" ht="230" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>788</v>
       </c>
@@ -7053,7 +7056,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="275.45">
+    <row r="277" spans="1:4" ht="260.7" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>792</v>
       </c>
@@ -7065,7 +7068,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="57.95">
+    <row r="278" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>795</v>
       </c>
@@ -7077,7 +7080,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="72.599999999999994">
+    <row r="279" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>798</v>
       </c>
@@ -7091,7 +7094,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="116.1">
+    <row r="280" spans="1:4" ht="122.7" x14ac:dyDescent="0.3">
       <c r="A280" s="9" t="s">
         <v>802</v>
       </c>
@@ -7105,7 +7108,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="72.599999999999994">
+    <row r="281" spans="1:4" ht="61.35" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>806</v>
       </c>
@@ -7119,7 +7122,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="116.45" thickBot="1">
+    <row r="282" spans="1:4" ht="123.35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="36" t="s">
         <v>810</v>
       </c>
@@ -7133,21 +7136,21 @@
         <v>813</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="66" t="s">
         <v>814</v>
       </c>
       <c r="B283" s="18" t="s">
         <v>815</v>
       </c>
-      <c r="C283" s="62" t="s">
+      <c r="C283" s="60" t="s">
         <v>816</v>
       </c>
-      <c r="D283" s="60" t="s">
+      <c r="D283" s="64" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="68"/>
       <c r="B284" s="7" t="s">
         <v>818</v>
@@ -7155,37 +7158,37 @@
       <c r="C284" s="69"/>
       <c r="D284" s="70"/>
     </row>
-    <row r="285" spans="1:4" ht="15" thickBot="1">
+    <row r="285" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="67"/>
       <c r="B285" s="19" t="s">
         <v>819</v>
       </c>
-      <c r="C285" s="63"/>
-      <c r="D285" s="61"/>
-    </row>
-    <row r="286" spans="1:4">
+      <c r="C285" s="61"/>
+      <c r="D285" s="65"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="66" t="s">
         <v>820</v>
       </c>
       <c r="B286" s="18" t="s">
         <v>821</v>
       </c>
-      <c r="C286" s="62" t="s">
+      <c r="C286" s="60" t="s">
         <v>822</v>
       </c>
-      <c r="D286" s="60" t="s">
+      <c r="D286" s="64" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" thickBot="1">
+    <row r="287" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="67"/>
       <c r="B287" s="19" t="s">
         <v>824</v>
       </c>
-      <c r="C287" s="63"/>
-      <c r="D287" s="61"/>
-    </row>
-    <row r="288" spans="1:4" ht="72.95" thickBot="1">
+      <c r="C287" s="61"/>
+      <c r="D287" s="65"/>
+    </row>
+    <row r="288" spans="1:4" ht="77.349999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="54" t="s">
         <v>825</v>
       </c>
@@ -7197,29 +7200,29 @@
       </c>
       <c r="D288" s="31"/>
     </row>
-    <row r="289" spans="1:4" ht="57.95" customHeight="1">
-      <c r="A289" s="64" t="s">
+    <row r="289" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="62" t="s">
         <v>828</v>
       </c>
       <c r="B289" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="C289" s="62" t="s">
+      <c r="C289" s="60" t="s">
         <v>830</v>
       </c>
-      <c r="D289" s="60" t="s">
+      <c r="D289" s="64" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" thickBot="1">
-      <c r="A290" s="65"/>
+    <row r="290" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="63"/>
       <c r="B290" s="19" t="s">
         <v>832</v>
       </c>
-      <c r="C290" s="63"/>
-      <c r="D290" s="61"/>
-    </row>
-    <row r="291" spans="1:4" ht="72.599999999999994">
+      <c r="C290" s="61"/>
+      <c r="D290" s="65"/>
+    </row>
+    <row r="291" spans="1:4" ht="76.7" x14ac:dyDescent="0.3">
       <c r="A291" s="15" t="s">
         <v>833</v>
       </c>
@@ -7231,7 +7234,7 @@
       </c>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4" ht="29.1">
+    <row r="292" spans="1:4" ht="30.7" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>836</v>
       </c>
@@ -7243,7 +7246,7 @@
       </c>
       <c r="D292" s="3"/>
     </row>
-    <row r="293" spans="1:4" ht="102" thickBot="1">
+    <row r="293" spans="1:4" ht="108" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="20" t="s">
         <v>839</v>
       </c>
@@ -7255,29 +7258,29 @@
       </c>
       <c r="D293" s="14"/>
     </row>
-    <row r="294" spans="1:4" ht="87" customHeight="1">
-      <c r="A294" s="64" t="s">
+    <row r="294" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="62" t="s">
         <v>842</v>
       </c>
       <c r="B294" s="33" t="s">
         <v>843</v>
       </c>
-      <c r="C294" s="62" t="s">
+      <c r="C294" s="60" t="s">
         <v>844</v>
       </c>
-      <c r="D294" s="60" t="s">
+      <c r="D294" s="64" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" thickBot="1">
-      <c r="A295" s="65"/>
+    <row r="295" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="63"/>
       <c r="B295" s="19" t="s">
         <v>846</v>
       </c>
-      <c r="C295" s="63"/>
-      <c r="D295" s="61"/>
-    </row>
-    <row r="296" spans="1:4" ht="203.1">
+      <c r="C295" s="61"/>
+      <c r="D295" s="65"/>
+    </row>
+    <row r="296" spans="1:4" ht="199.35" x14ac:dyDescent="0.3">
       <c r="A296" s="15" t="s">
         <v>847</v>
       </c>
@@ -7291,7 +7294,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="72.95" thickBot="1">
+    <row r="297" spans="1:4" ht="62" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="20" t="s">
         <v>851</v>
       </c>
@@ -7301,29 +7304,29 @@
       </c>
       <c r="D297" s="14"/>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="66" t="s">
         <v>853</v>
       </c>
       <c r="B298" s="18" t="s">
         <v>854</v>
       </c>
-      <c r="C298" s="62" t="s">
+      <c r="C298" s="60" t="s">
         <v>855</v>
       </c>
-      <c r="D298" s="60" t="s">
+      <c r="D298" s="64" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" thickBot="1">
+    <row r="299" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="67"/>
       <c r="B299" s="19" t="s">
         <v>857</v>
       </c>
-      <c r="C299" s="63"/>
-      <c r="D299" s="61"/>
-    </row>
-    <row r="300" spans="1:4" ht="43.5">
+      <c r="C299" s="61"/>
+      <c r="D299" s="65"/>
+    </row>
+    <row r="300" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A300" s="15" t="s">
         <v>858</v>
       </c>
@@ -7335,7 +7338,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="57.95">
+    <row r="301" spans="1:4" ht="46" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>861</v>
       </c>
@@ -7345,7 +7348,7 @@
       </c>
       <c r="D301" s="3"/>
     </row>
-    <row r="302" spans="1:4" ht="203.1">
+    <row r="302" spans="1:4" ht="184" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>863</v>
       </c>
@@ -7357,127 +7360,127 @@
         <v>865</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
       <c r="B303" s="7"/>
       <c r="C303" s="8"/>
       <c r="D303" s="3"/>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
       <c r="B304" s="7"/>
       <c r="C304" s="8"/>
       <c r="D304" s="3"/>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
       <c r="B305" s="7"/>
       <c r="C305" s="8"/>
       <c r="D305" s="3"/>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
       <c r="B306" s="7"/>
       <c r="C306" s="8"/>
       <c r="D306" s="3"/>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="B307" s="7"/>
       <c r="C307" s="8"/>
       <c r="D307" s="3"/>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
       <c r="B308" s="7"/>
       <c r="C308" s="8"/>
       <c r="D308" s="3"/>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="B309" s="7"/>
       <c r="C309" s="8"/>
       <c r="D309" s="3"/>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
       <c r="B310" s="7"/>
       <c r="C310" s="8"/>
       <c r="D310" s="3"/>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="B311" s="7"/>
       <c r="C311" s="8"/>
       <c r="D311" s="3"/>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
       <c r="B312" s="7"/>
       <c r="C312" s="8"/>
       <c r="D312" s="3"/>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
       <c r="B313" s="7"/>
       <c r="C313" s="8"/>
       <c r="D313" s="3"/>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="B314" s="7"/>
       <c r="C314" s="8"/>
       <c r="D314" s="3"/>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="B315" s="7"/>
       <c r="C315" s="8"/>
       <c r="D315" s="3"/>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="5"/>
       <c r="B316" s="7"/>
       <c r="C316" s="8"/>
       <c r="D316" s="3"/>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
       <c r="B317" s="7"/>
       <c r="C317" s="8"/>
       <c r="D317" s="3"/>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
       <c r="B318" s="7"/>
       <c r="C318" s="8"/>
       <c r="D318" s="3"/>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="7"/>
       <c r="C319" s="8"/>
       <c r="D319" s="3"/>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
       <c r="B320" s="7"/>
       <c r="C320" s="8"/>
       <c r="D320" s="3"/>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
       <c r="B321" s="7"/>
       <c r="C321" s="8"/>
       <c r="D321" s="3"/>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
       <c r="B322" s="7"/>
       <c r="C322" s="8"/>
       <c r="D322" s="3"/>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="B323" s="7"/>
       <c r="C323" s="8"/>
@@ -7485,6 +7488,78 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="D294:D295"/>
+    <mergeCell ref="C294:C295"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A265:A267"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="D265:D267"/>
+    <mergeCell ref="A283:A285"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="D283:D285"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
     <mergeCell ref="C224:C225"/>
     <mergeCell ref="A224:A225"/>
     <mergeCell ref="D224:D225"/>
@@ -7494,78 +7569,6 @@
     <mergeCell ref="A216:A217"/>
     <mergeCell ref="C216:C217"/>
     <mergeCell ref="D216:D217"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="A265:A267"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="D265:D267"/>
-    <mergeCell ref="A283:A285"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="D283:D285"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="C286:C287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="D294:D295"/>
-    <mergeCell ref="C294:C295"/>
-    <mergeCell ref="A294:A295"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="D298:D299"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7573,22 +7576,65 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bda0f687-f4e0-4894-8290-11c24609e334">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="16475c11-4167-4a03-b6f8-e5840bc49d78" xsi:nil="true"/>
-    <_dlc_DocId xmlns="16475c11-4167-4a03-b6f8-e5840bc49d78">Y554Z4AJHUSQ-1350378153-216844</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="16475c11-4167-4a03-b6f8-e5840bc49d78">
-      <Url>https://gencat.sharepoint.com/sites/326001/_layouts/15/DocIdRedir.aspx?ID=Y554Z4AJHUSQ-1350378153-216844</Url>
-      <Description>Y554Z4AJHUSQ-1350378153-216844</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBE57F8899A5C747987524BE4E60334C" ma:contentTypeVersion="529" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="85b49134f105accec398378688df85c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="16475c11-4167-4a03-b6f8-e5840bc49d78" xmlns:ns3="bda0f687-f4e0-4894-8290-11c24609e334" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d93155b50fc63d2ba692cf78ad77d793" ns2:_="" ns3:_="">
     <xsd:import namespace="16475c11-4167-4a03-b6f8-e5840bc49d78"/>
@@ -7856,77 +7902,64 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bda0f687-f4e0-4894-8290-11c24609e334">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="16475c11-4167-4a03-b6f8-e5840bc49d78" xsi:nil="true"/>
+    <_dlc_DocId xmlns="16475c11-4167-4a03-b6f8-e5840bc49d78">Y554Z4AJHUSQ-1350378153-216844</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="16475c11-4167-4a03-b6f8-e5840bc49d78">
+      <Url>https://gencat.sharepoint.com/sites/326001/_layouts/15/DocIdRedir.aspx?ID=Y554Z4AJHUSQ-1350378153-216844</Url>
+      <Description>Y554Z4AJHUSQ-1350378153-216844</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB3BA880-D823-4E7C-BE6E-3085677746D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9BA2661-6C98-40AE-9F85-B7E26FF8A5B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E96C9A-AD15-4A90-9A4D-492B2A0B5DCC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8C88188-EE22-4625-A5A6-A5ECFA841F02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8C88188-EE22-4625-A5A6-A5ECFA841F02}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E96C9A-AD15-4A90-9A4D-492B2A0B5DCC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="16475c11-4167-4a03-b6f8-e5840bc49d78"/>
+    <ds:schemaRef ds:uri="bda0f687-f4e0-4894-8290-11c24609e334"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9BA2661-6C98-40AE-9F85-B7E26FF8A5B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB3BA880-D823-4E7C-BE6E-3085677746D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bda0f687-f4e0-4894-8290-11c24609e334"/>
+    <ds:schemaRef ds:uri="16475c11-4167-4a03-b6f8-e5840bc49d78"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>